--- a/src/semeio/fmudesign/examples/ex7_background_no_seed.xlsx
+++ b/src/semeio/fmudesign/examples/ex7_background_no_seed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LGAZ/semeio/tests/fmudesign/data/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\github\semeio\src\semeio\fmudesign\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2DAFCF-DF08-EF4E-9814-322DF74E0BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EDA145-E2DE-4D60-86EC-A647CFEAC59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29040" windowHeight="15840" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -30,171 +30,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Specifies that this is a setup for a onebyone design and not a design of morris type</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Number of repeated seeds per sensitivity/sensitivity case. 
-This is overrided if number of realisations is specified in the numreal column in designinput.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alternatives:
-- default gives seed numbers 1000, 1001, 1002, 1003,---
-- None (seed number is not added as parameter in spreadsheet) 
-- filename for file with list of seeds in ert/input/distributions/If only one seed is given in the external seed file, this is used for all realisations – NOT IMPLEMENTED YET</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Alternatives:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- None
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- name of sheet in this workbook with background parameters
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- Name of external file with background parameters. Must end with .xlsx or .csv and be readable as pandas dataframe with parameter names as column headers.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Path is relative to where script is run from</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Trine Alsos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>numreal = repeats if not specified in table</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Trine Alsos:
-For case sensitivities</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>provide names for case1 and case2 and values. Values can be string</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
@@ -258,43 +93,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Trine Alsos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Used both as default and as base case value for single sensitivities.
-Values can be strings or numbers</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -558,17 +357,17 @@
     <t>rms_seeds</t>
   </si>
   <si>
-    <t>doe1.xlsx</t>
-  </si>
-  <si>
     <t>distribution_seed</t>
+  </si>
+  <si>
+    <t>ex7_doe1.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -598,6 +397,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1407,7 +1213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1795,6 +1601,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2737,22 +2547,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10"/>
-    <col min="3" max="3" width="77.83203125"/>
-    <col min="4" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.85546875"/>
+    <col min="4" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2768,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -2776,7 +2586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2784,9 +2594,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -2796,7 +2606,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2805,29 +2614,31 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125"/>
+    <col min="1" max="1" width="10.85546875"/>
     <col min="2" max="2" width="10"/>
-    <col min="3" max="3" width="12.5"/>
-    <col min="4" max="4" width="11.83203125"/>
+    <col min="3" max="3" width="12.42578125"/>
+    <col min="4" max="4" width="11.85546875"/>
     <col min="5" max="5" width="10" style="2"/>
-    <col min="6" max="8" width="11.83203125" style="2"/>
-    <col min="9" max="9" width="11.83203125"/>
-    <col min="10" max="10" width="33.1640625" style="2"/>
-    <col min="11" max="14" width="11.83203125" style="2"/>
-    <col min="15" max="17" width="11.83203125"/>
-    <col min="18" max="19" width="8.6640625"/>
-    <col min="20" max="20" width="9.83203125"/>
-    <col min="21" max="21" width="8.6640625"/>
-    <col min="22" max="22" width="9.83203125"/>
-    <col min="23" max="1025" width="8.6640625"/>
+    <col min="6" max="8" width="11.85546875" style="2"/>
+    <col min="9" max="9" width="11.85546875"/>
+    <col min="10" max="10" width="33.140625" style="2"/>
+    <col min="11" max="14" width="11.85546875" style="2"/>
+    <col min="15" max="15" width="11.85546875"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875"/>
+    <col min="18" max="19" width="8.7109375"/>
+    <col min="20" max="20" width="9.85546875"/>
+    <col min="21" max="21" width="8.7109375"/>
+    <col min="22" max="22" width="9.85546875"/>
+    <col min="23" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2878,7 +2689,7 @@
       </c>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
@@ -2900,7 +2711,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
@@ -2932,7 +2743,7 @@
       <c r="O3" s="41"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>26</v>
       </c>
@@ -2960,7 +2771,7 @@
       <c r="O4" s="55"/>
       <c r="P4" s="56"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>29</v>
       </c>
@@ -2992,7 +2803,7 @@
       <c r="O5" s="68"/>
       <c r="P5" s="69"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
@@ -3016,7 +2827,7 @@
       <c r="O6" s="81"/>
       <c r="P6" s="82"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="83"/>
       <c r="B7" s="84"/>
       <c r="C7" s="85"/>
@@ -3040,7 +2851,7 @@
       <c r="O7" s="94"/>
       <c r="P7" s="95"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>35</v>
       </c>
@@ -3072,7 +2883,7 @@
       <c r="O8" s="102"/>
       <c r="P8" s="107"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
         <v>40</v>
       </c>
@@ -3108,7 +2919,7 @@
       <c r="O9" s="114"/>
       <c r="P9" s="119"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="120"/>
       <c r="B10" s="121"/>
       <c r="C10" s="122"/>
@@ -3134,7 +2945,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="131"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="120"/>
       <c r="B11" s="121"/>
       <c r="C11" s="122"/>
@@ -3162,7 +2973,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="131"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="132"/>
       <c r="B12" s="133"/>
       <c r="C12" s="134"/>
@@ -3188,7 +2999,7 @@
       <c r="O12" s="138"/>
       <c r="P12" s="143"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="144" t="s">
         <v>51</v>
       </c>
@@ -3224,7 +3035,7 @@
       </c>
       <c r="P13" s="156"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="144"/>
       <c r="B14" s="145"/>
       <c r="C14" s="146"/>
@@ -3254,7 +3065,7 @@
       </c>
       <c r="P14" s="156"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="144"/>
       <c r="B15" s="145"/>
       <c r="C15" s="146"/>
@@ -3284,7 +3095,7 @@
       </c>
       <c r="P15" s="156"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="157"/>
       <c r="B16" s="158"/>
       <c r="C16" s="159"/>
@@ -3312,7 +3123,7 @@
       </c>
       <c r="P16" s="156"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="108" t="s">
         <v>58</v>
       </c>
@@ -3337,10 +3148,10 @@
       <c r="N17" s="118"/>
       <c r="O17" s="171"/>
       <c r="P17" s="119" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="120"/>
       <c r="B18" s="121"/>
       <c r="C18" s="122"/>
@@ -3360,7 +3171,7 @@
       <c r="O18" s="175"/>
       <c r="P18" s="131"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="120"/>
       <c r="B19" s="121"/>
       <c r="C19" s="122"/>
@@ -3380,7 +3191,7 @@
       <c r="O19" s="175"/>
       <c r="P19" s="131"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="132"/>
       <c r="B20" s="133"/>
       <c r="C20" s="134"/>
@@ -3409,29 +3220,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5"/>
-    <col min="2" max="2" width="13.5" style="2"/>
-    <col min="3" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="12.42578125"/>
+    <col min="2" max="2" width="13.42578125" style="2"/>
+    <col min="3" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="192" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3439,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3447,7 +3258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -3455,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3463,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3471,7 +3282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3479,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3487,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3495,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -3503,7 +3314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3511,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -3519,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3527,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -3535,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3543,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3551,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -3559,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -3567,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -3575,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -3583,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3591,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -3599,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -3607,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -3615,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -3623,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3635,7 +3446,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3644,30 +3454,34 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="191"/>
+      <c r="B1" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="191" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="191" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="191" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2">
@@ -3677,8 +3491,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="191" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3690,8 +3504,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="191" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="2">
@@ -3705,8 +3519,8 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="191" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="2">
@@ -3733,17 +3547,19 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.5"/>
-    <col min="8" max="8" width="15.33203125"/>
-    <col min="9" max="1025" width="11.5"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="180" t="s">
         <v>8</v>
       </c>
@@ -3769,7 +3585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="185" t="s">
         <v>72</v>
       </c>
@@ -3791,7 +3607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="188" t="s">
         <v>73</v>
       </c>
@@ -3813,7 +3629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="188" t="s">
         <v>74</v>
       </c>
@@ -3854,27 +3670,29 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625"/>
+    <col min="1" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="191"/>
+      <c r="B1" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="191" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="191" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="2">
@@ -3883,8 +3701,8 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="191" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3895,8 +3713,8 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="191" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="2">

--- a/src/semeio/fmudesign/examples/ex7_background_no_seed.xlsx
+++ b/src/semeio/fmudesign/examples/ex7_background_no_seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\github\semeio\src\semeio\fmudesign\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EDA145-E2DE-4D60-86EC-A647CFEAC59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98D9D0-8A6A-4A3C-9481-7D08F0221193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="992" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -58,61 +58,6 @@
 lognormal(mean, stddev, min, max) – where min/max is optional and will give truncated lognormal
 uniform(from,to)loguniform(from, to)triangular(low, mode, high)
 discrete((value1, value2, value3,..,value_n) (weight1, weight2, weight3,..weight_n))</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Outcomes, split with comma</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>fractions</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>The set of background parameters is sampled from these distributions. 
-The number of samples = max(general_input. repeats , designinput.numreals)
-The table of sampled values are kept the same for all single sensitivities.
-This means that for the sensitivities where a parameter is not “in focus”  the parameter values will be taken from the background table if it exists there.  If parameter does not exist in background table , parameter defaultvalues are used instead.Distributions and order of distribution parameters are the same as in design input spreadsheet.</t>
         </r>
       </text>
     </comment>
@@ -1206,7 +1151,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1590,9 +1537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1605,6 +1549,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2550,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2614,7 +2561,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3029,7 @@
       <c r="J15" s="151">
         <v>1</v>
       </c>
-      <c r="K15" s="190">
+      <c r="K15" s="189">
         <v>1.5</v>
       </c>
       <c r="L15" s="153">
@@ -3235,10 +3182,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="191" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3466,22 +3413,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="191"/>
-      <c r="B1" s="191" t="s">
+      <c r="A1" s="190"/>
+      <c r="B1" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="191" t="s">
+      <c r="C1" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="191" t="s">
+      <c r="D1" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="191" t="s">
+      <c r="E1" s="190" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="190" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2">
@@ -3492,7 +3439,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="190" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3505,7 +3452,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="190" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="2">
@@ -3520,7 +3467,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="190" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="2">
@@ -3543,11 +3490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3581,26 +3528,26 @@
       <c r="G1" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="184" t="s">
+      <c r="H1" s="192" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="187">
+      <c r="C2" s="186">
         <v>0</v>
       </c>
-      <c r="D2" s="187">
+      <c r="D2" s="186">
         <v>1</v>
       </c>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187">
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186">
         <v>2</v>
       </c>
       <c r="H2" s="155" t="s">
@@ -3608,10 +3555,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="188" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="2">
@@ -3630,10 +3577,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="188" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="2">
@@ -3661,7 +3608,6 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3669,8 +3615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,19 +3626,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="191"/>
-      <c r="B1" s="191" t="s">
+      <c r="A1" s="190"/>
+      <c r="B1" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="191" t="s">
+      <c r="C1" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="191" t="s">
+      <c r="D1" s="190" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="190" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="2">
@@ -3702,7 +3648,7 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="190" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3714,7 +3660,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="190" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="2">
